--- a/report/abbviemedical_responses.xlsx
+++ b/report/abbviemedical_responses.xlsx
@@ -10,6 +10,8 @@
     <sheet name="Lithuania-Everest" sheetId="5" r:id="rId5"/>
     <sheet name="USA" sheetId="6" r:id="rId6"/>
     <sheet name="Estonia" sheetId="7" r:id="rId7"/>
+    <sheet name="Lithuania" sheetId="8" r:id="rId8"/>
+    <sheet name="Medical Latvia" sheetId="9" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -403,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -760,16 +762,368 @@
         <v>200</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://medical.abbviepro.com/gb/en.html</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav-white.png</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify-white.png</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://medical.abbviepro.com/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://consent.trustarc.com/notice?domain=abbviepro.com&amp;c=teconsent&amp;js=nj&amp;noticeType=bb&amp;text=true&amp;gtm=true</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo-white.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://medical.abbviepro.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://consent.trustarc.com/asset/notice.js/v/v1.7-518</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/gb/pink-flask.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo-white-compact.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://medical.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/gb/en/jcr:content</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://consent.trustarc.com/get?name=SourceSansPro-Regular.ttf</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://consent.trustarc.com/get?name=Powered-By-TrustArc.png</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://consent.trustarc.com/get?name=abbvie-id-logo.png</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://consent.trustarc.com/get?name=ic-close.svg</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://consent.trustarc.com/get?name=SourceSansPro-Bold.ttf</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr:content/footer/footer_area/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+      </c>
+      <c r="B79">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://consent.trustarc.com/log?domain=abbviepro.com&amp;country=bd&amp;state=&amp;behavior=implied&amp;session=cfcd9580-3225-4e95-8bc4-15e606c5fa6b&amp;userType=NEW&amp;c=edab</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://consent.trustarc.com/bannermsg?action=views&amp;domain=abbviepro.com&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.9652308037703641&amp;session=cfcd9580-3225-4e95-8bc4-15e606c5fa6b&amp;userType=NEW</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://medical.abbviepro.com/content/experience-fragments/abbvie-pro-medical/gb/hcp-overlay-v2/master/jcr:content/root/audience_selection_c/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+      </c>
+      <c r="B82">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr:content/header/header_area/mega-menu/image-extension/item_1.coreimg.png/1685629684184-AbbVie-Pro-Medical-logo-white.png</v>
+      </c>
+      <c r="B83">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr%3acontent/footer/footer_area/image-extension/item_1.coreimg.png/1687170291927.png</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr%3acontent/header/header_area/mega-menu/image-extension/item_1.coreimg.png/1687170345817.png</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://medical.abbviepro.com/content/experience-fragments/abbvie-pro-medical/gb/hcp-overlay-v2/master/jcr%3acontent/root/audience_selection_c/image-extension/item_1.coreimg.png/1686155314893.png</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D84_sn_I3F5OJD15VJ7F9HKQUEIFFN75DCAFQ38&amp;svrid=-84&amp;flavor=cors&amp;vi=VPUFADKVADOIUSPPACUFRRLTHIKWUVTM-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical.abbviepro.com%2Fgb%2Fen.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=890491861&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_I3F5OJD15VJ7F9HKQUEIFFN75DCAFQ38_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=VPUFADKVADOIUSPPACUFRRLTHIKWUVTM-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fmedical.abbviepro.com%2Fgb%2Fen.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1300183445&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B88"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1214,9 +1568,449 @@
         <v>200</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://medical.abbviepro.com/bal/Latvia/everest.html</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/everest%20logo%20trans.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/how%20can%20we%20help%20you%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/introducing%20the%20community%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/bal/lav/everest/jcr:content/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1698405993374-everest%20logo%20trans.png</v>
+      </c>
+      <c r="B92">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/banner%20background.png/_jcr_content/renditions/original</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://consent.trustarc.com/v2/asset/08:07:37.896mwofos_AbbVieID-logo.png</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=pl0dws&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7312335215115113&amp;session=7a8061a2-eb22-4146-9f30-c23d2ed2b954&amp;userType=NEW</v>
+      </c>
+      <c r="B102">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=pl0dws&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.04953650659149611&amp;session=7a8061a2-eb22-4146-9f30-c23d2ed2b954&amp;userType=NEW</v>
+      </c>
+      <c r="B103">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/bal/lav/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+      </c>
+      <c r="B104">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://medical.abbviepro.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=pl0dws&amp;referer=&amp;fullURL=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;category=</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://medical.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/bal/lav/everest/jcr:content</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/bal/lav/everest/jcr%3acontent/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1700820993658.png</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/bal/lav/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1697805894720.png</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D77_sn_1U4S8TDOA6CSAM52AHFIQBU2FR1EA3K3&amp;svrid=-77&amp;flavor=cors&amp;vi=IALGFBAERKKWUJHQUACQMGTKCMMJCNHL-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1894152620&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B110"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1533,7 +2327,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2042,16 +2836,496 @@
         <v>200</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://medical.abbviepro.com/sa/es1.html</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://medical.abbviepro.com/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://consent.trustarc.com/v2/notice/yp2stc</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://medical.abbviepro.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://consent.trustarc.com/v2/asset/09:34:14.976hehfho_AbbVieID_transp_logo.png</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro/logo/2023/AbbViePro%20Logo%202023.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/sa/es1/_jcr_content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629684184-AbbVie-Pro-Medical-logo-white.png</v>
+      </c>
+      <c r="B87">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/social-share/clientlibs.min.js</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=yp2stc&amp;referer=&amp;fullURL=https%3A%2F%2Fmedical.abbviepro.com%2Fsa%2Fes1.html&amp;category=</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/form-text/clientlibs.min.js</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/overlay-component/clientlibs.min.js</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/rating-component/clientlibs.min.js</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=yp2stc&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.08382492085920079&amp;session=36e627cd-797c-4a60-b720-3f72e077089a&amp;userType=NEW</v>
+      </c>
+      <c r="B93">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=yp2stc&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6030752931092913&amp;session=36e627cd-797c-4a60-b720-3f72e077089a&amp;userType=NEW</v>
+      </c>
+      <c r="B94">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_boldItalic.woff2</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/iframe-widget/clientlibs.min.js</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/sa/ad/Pathogenesis%20of%20AD.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_thin.woff2</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_italic.woff2</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/sa/es1/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685634679372.png</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo-white-compact.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/moment-js.min.js</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro/gu/medical-abbvie-pro/immunoogy%20banner.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/sa/es1/jcr:content/body/column_control_94011/par1-100col/webinar/image-extension/item_1.coreimg.jpg/1680944991716-Pathogenesis%20of%20AD.jpg</v>
+      </c>
+      <c r="B111">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://medical.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/sa/es1/jcr:content</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/expand.png</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/sa/es1/jcr%3acontent/body/column_control_94011/par1-100col/webinar/image-extension/item_1.coreimg.jpg/1691997162281.jpg</v>
+      </c>
+      <c r="B114">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>https://bcove.video/3YvTML0</v>
+      </c>
+      <c r="B115">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D81_sn_ID8B2KP6SSCRMRFLSAL31R6QICKTSEUT&amp;svrid=-81&amp;flavor=cors&amp;vi=CLUAIMKKEWSBAUJGJJICPPFROUVPKCUP-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical.abbviepro.com%2Fsa%2Fes1.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=823912573&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B116">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>https://players.brightcove.net/2157889324001/default_default/index.html?videoId=6333353962112</v>
+      </c>
+      <c r="B117">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>blob:https://players.brightcove.net/0297bfad-b5df-4d9d-a62b-4388cb878a60</v>
+      </c>
+      <c r="B118">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>blob:https://players.brightcove.net/7f354f4e-fedb-40a6-b309-cffa9ef9f129</v>
+      </c>
+      <c r="B119">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>blob:https://players.brightcove.net/69d1694b-7e4a-4fe7-82b9-9410e33f4c90</v>
+      </c>
+      <c r="B120">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>blob:https://players.brightcove.net/9a7b1550-53a6-4232-b33f-63a68f10408a</v>
+      </c>
+      <c r="B121">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>blob:https://players.brightcove.net/8376cfa8-b199-46e0-9461-eb228e76a507</v>
+      </c>
+      <c r="B122">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>https://vjs.zencdn.net/vttjs/0.12.5/vtt.global.min.js</v>
+      </c>
+      <c r="B123">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B63"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B123"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2512,16 +3786,464 @@
         <v>200</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://medical.abbviepro.com/bal/lit/everest.html</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://medical.abbviepro.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/banner%20background.png/_jcr_content/renditions/original</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/everest%20logo%20trans.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/introducing%20the%20community%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/how%20can%20we%20help%20you%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/bal/lit/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+      </c>
+      <c r="B95">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://medical.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/bal/lit/everest/jcr:content</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://consent.trustarc.com/v2/asset/08:07:37.896mwofos_AbbVieID-logo.png</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=pl0dws&amp;referer=&amp;fullURL=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;category=</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=pl0dws&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.9365165958857389&amp;session=9f9aac16-ffcc-47b2-920b-5bb0c5a1dfa1&amp;userType=NEW</v>
+      </c>
+      <c r="B104">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=pl0dws&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.9592550360456389&amp;session=9f9aac16-ffcc-47b2-920b-5bb0c5a1dfa1&amp;userType=NEW</v>
+      </c>
+      <c r="B105">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/bal/lit/everest/jcr:content/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1698405993374-everest%20logo%20trans.png</v>
+      </c>
+      <c r="B109">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/bal/lit/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1697806930306.png</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/bal/lit/everest/jcr%3acontent/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1700822612494.png</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D29_sn_1RA7LVCVJM2B83GNEK6QF5BP3IKC3QFT&amp;svrid=-29&amp;flavor=cors&amp;vi=EKUFIAFCBTFRCHQIFLRTBPPUDFCFRHKO-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2135903516&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D29_sn_1RA7LVCVJM2B83GNEK6QF5BP3IKC3QFT&amp;svrid=-29&amp;flavor=cors&amp;vi=EKUFIAFCBTFRCHQIFLRTBPPUDFCFRHKO-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3461503068&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B113"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B377"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4038,16 +5760,1520 @@
         <v>200</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>https://www.abbviescience.com/</v>
+      </c>
+      <c r="B190">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify-white.png</v>
+      </c>
+      <c r="B191">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B192">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B193">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav-white.png</v>
+      </c>
+      <c r="B194">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+      </c>
+      <c r="B195">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+      </c>
+      <c r="B196">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B197">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+      </c>
+      <c r="B198">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
+      </c>
+      <c r="B199">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B200">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B202">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B203">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B204">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/logo-header-02.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B205">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B206">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Heading%20Solid%20Tumors.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B207">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-453.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B208">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/PVEK.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B209">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-525.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B210">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/BTK%20Inhibitor.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B211">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/IMGN-151.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B212">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-319.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B213">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD19.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B214">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/PTPN2-N1.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B215">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Ibrutinib.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B216">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/BTK%20Degrader.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B217">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/c-MetTOP1i%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B218">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD19%20sCAR%20T.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B219">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABB-101.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B220">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-969.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B221">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CLBR001%20+%20SWI019.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B222">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/MALT1.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B223">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-400.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B224">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/Tumor%20Intrinsic%20Small.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B225">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>https://consent.trustarc.com/v2/notice/i8e2va</v>
+      </c>
+      <c r="B226">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD3%20x%20CD20%20BsAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B227">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD3%20X%20BCMA%20BsAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B228">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/CD39%20mAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B229">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Epcoritamab.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B230">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B231">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B232">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-514.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B233">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/FR%CE%B1%20DM21Biparatopic%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B234">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/BCL-2%20Inhibitor.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B235">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Venetoclax.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B236">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/MIRV.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B237">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B238">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Teliso-V.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B239">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-CLS-579.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B240">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD123.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B241">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Budigalimab.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B242">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/c-Met%20TriNKET.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B243">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/FR%CE%B1%20DM4%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B244">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/footer%20separator.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B245">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/TTX-030.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B246">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/PD-1%20mAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B247">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-383.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B248">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B249">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-706.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B250">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/CCR8%20mAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B251">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/logo-footer.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B252">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-CLS-484.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B253">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/SEZ6%20Top1i%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B254">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/PSMA%20-%20STEAP1.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B255">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/c-MetMMAEADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B256">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-303.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B257">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>https://consent.trustarc.com/v2/asset/15:22:53.786v8irmh_AbbVieID_transp_logo.png</v>
+      </c>
+      <c r="B258">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/GARP%20-%20TGF.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B259">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Livmoniplimab.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B260">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>https://www.abbviescience.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B261">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+      </c>
+      <c r="B262">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=i8e2va&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.892882231621116&amp;session=6b69cede-5768-4178-82f4-d9adc9cbae59&amp;userType=NEW</v>
+      </c>
+      <c r="B263">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=i8e2va&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7963625517490296&amp;session=6b69cede-5768-4178-82f4-d9adc9cbae59&amp;userType=NEW</v>
+      </c>
+      <c r="B264">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/Immuno-Oncology%20Small.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B265">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Heading%20Hematological.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B266">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=i8e2va&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.abbviescience.com%2F&amp;category=</v>
+      </c>
+      <c r="B267">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B268">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Tumor%20Intrinsic%20background.png/_jcr_content/renditions/original</v>
+      </c>
+      <c r="B269">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>https://www.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Immuno-Oncology%20background.png/_jcr_content/renditions/original</v>
+      </c>
+      <c r="B270">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>https://www.abbviescience.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/us/en/jcr:content</v>
+      </c>
+      <c r="B271">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+      </c>
+      <c r="B272">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>https://www.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+      </c>
+      <c r="B273">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1688484483694-logo-header-02.png</v>
+      </c>
+      <c r="B274">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715765685155-Heading%20Solid%20Tumors.png</v>
+      </c>
+      <c r="B275">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_197664306/item_1.coreimg.png/1715765570837-ABBV-319.png</v>
+      </c>
+      <c r="B276">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1931084129/item_1.coreimg.png/1715765571728-ABBV-525.png</v>
+      </c>
+      <c r="B277">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1827131568/item_1.coreimg.png/1715765570495-ABBV-453.png</v>
+      </c>
+      <c r="B278">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715766266571.png</v>
+      </c>
+      <c r="B279">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_104141056/item_1.coreimg.png/1715765572765-BTK%20Inhibitor.png</v>
+      </c>
+      <c r="B280">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1741814200/item_1.coreimg.png/1715765572988-CD19.png</v>
+      </c>
+      <c r="B281">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1688484543935.png</v>
+      </c>
+      <c r="B282">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_197664306/item_1.coreimg.png/1715766303991.png</v>
+      </c>
+      <c r="B283">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B284">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1931084129/item_1.coreimg.png/1715766308756.png</v>
+      </c>
+      <c r="B285">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1741814200/item_1.coreimg.png/1715766347850.png</v>
+      </c>
+      <c r="B286">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1827131568/item_1.coreimg.png/1715766287074.png</v>
+      </c>
+      <c r="B287">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B288">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_110809592/item_1.coreimg.png/1715769233065-IMGN-151.png</v>
+      </c>
+      <c r="B289">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_382429153/item_1.coreimg.png/1715769572283-PTPN2-N1.png</v>
+      </c>
+      <c r="B290">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715765575665-Venetoclax.png</v>
+      </c>
+      <c r="B291">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2126162455/item_1.coreimg.png/1715765569956-ABB-101.png</v>
+      </c>
+      <c r="B292">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1754668049/item_1.coreimg.png/1715765573799-Ibrutinib.png</v>
+      </c>
+      <c r="B293">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715765602317-Heading%20Hematological.png</v>
+      </c>
+      <c r="B294">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_110809592/item_1.coreimg.png/1715769313504.png</v>
+      </c>
+      <c r="B295">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_636464192/item_1.coreimg.png/1715765574433-PVEK.png</v>
+      </c>
+      <c r="B296">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_382429153/item_1.coreimg.png/1715770031086.png</v>
+      </c>
+      <c r="B297">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715766273526.png</v>
+      </c>
+      <c r="B298">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1754668049/item_1.coreimg.png/1715766293939.png</v>
+      </c>
+      <c r="B299">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2126162455/item_1.coreimg.png/1715766299904.png</v>
+      </c>
+      <c r="B300">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715765572100-BCL-2%20Inhibitor.png</v>
+      </c>
+      <c r="B301">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1760908249/item_1.coreimg.png/1715765572100-BCL-2%20Inhibitor.png</v>
+      </c>
+      <c r="B302">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_636464192/item_1.coreimg.png/1715766312845.png</v>
+      </c>
+      <c r="B303">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715766263374.png</v>
+      </c>
+      <c r="B304">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_104141056/item_1.coreimg.png/1715766339845.png</v>
+      </c>
+      <c r="B305">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1342577906/item_1.coreimg.png/1715765574118-MALT1.png</v>
+      </c>
+      <c r="B306">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1525083749/item_1.coreimg.png/1715765573351-CD123.png</v>
+      </c>
+      <c r="B307">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_941819890/item_1.coreimg.png/1715765572769-BTK%20Degrader.png</v>
+      </c>
+      <c r="B308">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715766320889.png</v>
+      </c>
+      <c r="B309">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1760908249/item_1.coreimg.png/1715766320889.png</v>
+      </c>
+      <c r="B310">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1342577906/item_1.coreimg.png/1715766357034.png</v>
+      </c>
+      <c r="B311">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_941819890/item_1.coreimg.png/1715766343700.png</v>
+      </c>
+      <c r="B312">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715770024070-MIRV.png</v>
+      </c>
+      <c r="B313">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1525083749/item_1.coreimg.png/1715766362565.png</v>
+      </c>
+      <c r="B314">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1883121670/item_1.coreimg.png/1715769229295-ABBV-400.png</v>
+      </c>
+      <c r="B315">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1551711446/item_1.coreimg.png/1715769236010-Teliso-V.png</v>
+      </c>
+      <c r="B316">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_380484993/item_1.coreimg.png/1715769229709-ABBV-969.png</v>
+      </c>
+      <c r="B317">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769232326-FR%CE%B1%20DM4%20ADC.png</v>
+      </c>
+      <c r="B318">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_797232505/item_1.coreimg.png/1715769232330-c-MetMMAEADC.png</v>
+      </c>
+      <c r="B319">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1883121670/item_1.coreimg.png/1715769331800.png</v>
+      </c>
+      <c r="B320">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_989051220/item_1.coreimg.png/1715769232455-FR%CE%B1%20DM21Biparatopic%20ADC.png</v>
+      </c>
+      <c r="B321">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1551711446/item_1.coreimg.png/1715769322371.png</v>
+      </c>
+      <c r="B322">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1491951430/item_1.coreimg.png/1715769231709-c-MetTOP1i%20ADC.png</v>
+      </c>
+      <c r="B323">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_380484993/item_1.coreimg.png/1715769343865.png</v>
+      </c>
+      <c r="B324">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769400363.png</v>
+      </c>
+      <c r="B325">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_989051220/item_1.coreimg.png/1715769406740.png</v>
+      </c>
+      <c r="B326">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_797232505/item_1.coreimg.png/1715769423848.png</v>
+      </c>
+      <c r="B327">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_800201096/item_1.coreimg.png/1715769234831-SEZ6%20Top1i%20ADC.png</v>
+      </c>
+      <c r="B328">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1491951430/item_1.coreimg.png/1715769426297.png</v>
+      </c>
+      <c r="B329">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1421472094/item_1.coreimg.png/1715769234177-PSMA%20-%20STEAP1.png</v>
+      </c>
+      <c r="B330">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715766439839-Epcoritamab.png</v>
+      </c>
+      <c r="B331">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_441705926/item_1.coreimg.png/1715766446538-ABBV-383.png</v>
+      </c>
+      <c r="B332">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715766446660-CD3%20x%20CD20%20BsAb.png</v>
+      </c>
+      <c r="B333">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2100548286/item_1.coreimg.png/1715766439628-CLBR001%20+%20SWI019.png</v>
+      </c>
+      <c r="B334">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_800201096/item_1.coreimg.png/1715769474478.png</v>
+      </c>
+      <c r="B335">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_405963686/item_1.coreimg.png/1715766446701-CD3%20X%20BCMA%20BsAb.png</v>
+      </c>
+      <c r="B336">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715766565737.png</v>
+      </c>
+      <c r="B337">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715766568816.png</v>
+      </c>
+      <c r="B338">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_405963686/item_1.coreimg.png/1715766571805.png</v>
+      </c>
+      <c r="B339">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_441705926/item_1.coreimg.png/1715766560130.png</v>
+      </c>
+      <c r="B340">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2100548286/item_1.coreimg.png/1715766563428.png</v>
+      </c>
+      <c r="B341">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_2007089479/item_1.coreimg.png/1715766439523-CD19%20sCAR%20T.png</v>
+      </c>
+      <c r="B342">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_65906452/item_1.coreimg.png/1715769229687-ABBV-706.png</v>
+      </c>
+      <c r="B343">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension/item_1.coreimg.png/1715769230889-Budigalimab.png</v>
+      </c>
+      <c r="B344">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715769233165-Livmoniplimab.png</v>
+      </c>
+      <c r="B345">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_2007089479/item_1.coreimg.png/1715766574159.png</v>
+      </c>
+      <c r="B346">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769233069-GARP%20-%20TGF.png</v>
+      </c>
+      <c r="B347">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1421472094/item_1.coreimg.png/1715769479023.png</v>
+      </c>
+      <c r="B348">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_65906452/item_1.coreimg.png/1715769336923.png</v>
+      </c>
+      <c r="B349">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>https://www.abbviescience.com/content/experience-fragments/abbvie-pro-medical/usa/hcp-overlay-v21/master/jcr:content/root/audience_selection_c/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+      </c>
+      <c r="B350">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension/item_1.coreimg.png/1715769763023.png</v>
+      </c>
+      <c r="B351">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769905958.png</v>
+      </c>
+      <c r="B352">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715769751819.png</v>
+      </c>
+      <c r="B353">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_2092201353/item_1.coreimg.png/1715769234083-PD-1%20mAb.png</v>
+      </c>
+      <c r="B354">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_320819027/item_1.coreimg.png/1715769229098-ABBV-514.png</v>
+      </c>
+      <c r="B355">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_935191685/item_1.coreimg.png/1715769231579-c-Met%20TriNKET.png</v>
+      </c>
+      <c r="B356">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_474047910/item_1.coreimg.png/1715769230413-ABBV-CLS-484.png</v>
+      </c>
+      <c r="B357">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_976811614/item_1.coreimg.png/1715769230815-ABBV-CLS-579.png</v>
+      </c>
+      <c r="B358">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_2092201353/item_1.coreimg.png/1715769921855.png</v>
+      </c>
+      <c r="B359">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_2136283967/item_1.coreimg.png/1715769236577-TTX-030.png</v>
+      </c>
+      <c r="B360">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>https://www.abbviescience.com/content/experience-fragments/abbvie-pro-medical/usa/hcp-overlay-v21/master/jcr%3acontent/root/audience_selection_c/image-extension/item_1.coreimg.png/1694175398115.png</v>
+      </c>
+      <c r="B361">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_320819027/item_1.coreimg.png/1715769775043.png</v>
+      </c>
+      <c r="B362">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_976811614/item_1.coreimg.png/1715769786029.png</v>
+      </c>
+      <c r="B363">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_935191685/item_1.coreimg.png/1715770001867.png</v>
+      </c>
+      <c r="B364">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_474047910/item_1.coreimg.png/1715769781393.png</v>
+      </c>
+      <c r="B365">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_2136283967/item_1.coreimg.png/1715769838384.png</v>
+      </c>
+      <c r="B366">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_1022804980/item_1.coreimg.png/1715769228755-ABBV-303.png</v>
+      </c>
+      <c r="B367">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1810158656/item_1.coreimg.png/1715769230957-CCR8%20mAb.png</v>
+      </c>
+      <c r="B368">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_28654129/item_1.coreimg.png/1715769572283-PTPN2-N1.png</v>
+      </c>
+      <c r="B369">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1416536594/item_1.coreimg.png/1715769231548-CD39%20mAb.png</v>
+      </c>
+      <c r="B370">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1810158656/item_1.coreimg.png/1715770015447.png</v>
+      </c>
+      <c r="B371">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_28654129/item_1.coreimg.png/1715770035932.png</v>
+      </c>
+      <c r="B372">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_1022804980/item_1.coreimg.png/1715769770410.png</v>
+      </c>
+      <c r="B373">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>https://www.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1416536594/item_1.coreimg.png/1715770059775.png</v>
+      </c>
+      <c r="B374">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D42_sn_OO8P61JJ94IM13TV7QBD627UE77GPL78&amp;svrid=-42&amp;flavor=cors&amp;vi=BTDVTGAEPVRUVRPCKRCKCPIUQUMPKCNI-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fwww.abbviescience.com%2F&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1823789926&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B375">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_OO8P61JJ94IM13TV7QBD627UE77GPL78_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=BTDVTGAEPVRUVRPCKRCKCPIUQUMPKCNI-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fwww.abbviescience.com%2F&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=965179274&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B376">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_OO8P61JJ94IM13TV7QBD627UE77GPL78_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=BTDVTGAEPVRUVRPCKRCKCPIUQUMPKCNI-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fwww.abbviescience.com%2F&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2851347176&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B377">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B189"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B377"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4492,9 +7718,1381 @@
         <v>200</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://medical.abbviepro.com/bal/est/everest.html</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
+      </c>
+      <c r="B68">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B69">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B70">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B71">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B72">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B73">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/everest%20logo%20trans.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B74">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B75">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
+      </c>
+      <c r="B77">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B78">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B79">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B80">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B81">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B82">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/introducing%20the%20community%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B83">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/how%20can%20we%20help%20you%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B84">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B87">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+      </c>
+      <c r="B88">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+      </c>
+      <c r="B89">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://consent.trustarc.com/v2/asset/08:07:37.896mwofos_AbbVieID-logo.png</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://medical.abbviepro.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B96">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+      </c>
+      <c r="B97">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff</v>
+      </c>
+      <c r="B98">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff</v>
+      </c>
+      <c r="B99">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.woff?q0neb3</v>
+      </c>
+      <c r="B100">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+      </c>
+      <c r="B101">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.ttf</v>
+      </c>
+      <c r="B103">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff</v>
+      </c>
+      <c r="B104">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.ttf</v>
+      </c>
+      <c r="B106">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.ttf</v>
+      </c>
+      <c r="B107">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=pl0dws&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7474396172308091&amp;session=d0ec9815-0623-450d-b471-d756eb281ec1&amp;userType=NEW</v>
+      </c>
+      <c r="B108">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=pl0dws&amp;referer=&amp;fullURL=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2Fest%2Feverest.html&amp;category=</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=pl0dws&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6243954236394547&amp;session=d0ec9815-0623-450d-b471-d756eb281ec1&amp;userType=NEW</v>
+      </c>
+      <c r="B111">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D63_sn_0AD7L0H96C0Q1M3085IHEO3UKE4OHR7A&amp;svrid=-63&amp;flavor=cors&amp;vi=FQEMFMCRLNRRFMVHIKAMFTVKRWBVQCMA-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2Fest%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1173036437&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_0AD7L0H96C0Q1M3085IHEO3UKE4OHR7A_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=FQEMFMCRLNRRFMVHIKAMFTVKRWBVQCMA-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2Fest%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=28952227&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B113"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://medical.abbviepro.com/bal/lit.html</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://medical.abbviepro.com/bal/lit/everest.html</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+      </c>
+      <c r="B4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
+      </c>
+      <c r="B5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B6">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+      </c>
+      <c r="B7">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
+      </c>
+      <c r="B8">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B9">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B10">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+      </c>
+      <c r="B11">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
+      </c>
+      <c r="B12">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B13">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B14">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/everest%20logo%20trans.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B16">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B17">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B18">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B19">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/introducing%20the%20community%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B20">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B21">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B22">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
+      </c>
+      <c r="B23">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B24">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/how%20can%20we%20help%20you%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B26">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B27">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B28">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
+      </c>
+      <c r="B29">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B33">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://consent.trustarc.com/v2/asset/08:07:37.896mwofos_AbbVieID-logo.png</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=pl0dws&amp;referer=&amp;fullURL=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;category=</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=pl0dws&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6191023870911594&amp;session=9dd18a3b-9c39-4597-8b79-89f5d922125e&amp;userType=NEW</v>
+      </c>
+      <c r="B44">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=pl0dws&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.4535364824784034&amp;session=9dd18a3b-9c39-4597-8b79-89f5d922125e&amp;userType=NEW</v>
+      </c>
+      <c r="B45">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B45"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://medical.abbviepro.com/bal/lav.html</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://medical.abbviepro.com/bal/Latvia/everest.html</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B21">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B22">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/everest%20logo%20trans.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B23">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
+      </c>
+      <c r="B24">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B26">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B27">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B28">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B29">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/introducing%20the%20community%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B30">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/how%20can%20we%20help%20you%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B31">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B34">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+      </c>
+      <c r="B35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+      </c>
+      <c r="B36">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/banner%20background.png/_jcr_content/renditions/original</v>
+      </c>
+      <c r="B37">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/bal/lav/everest/jcr:content/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1698405993374-everest%20logo%20trans.png</v>
+      </c>
+      <c r="B38">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://medical.abbviepro.com/content/abbvie-pro-medical/bal/lav/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+      </c>
+      <c r="B39">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://consent.trustarc.com/v2/asset/08:07:37.896mwofos_AbbVieID-logo.png</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://medical.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/banner%20background.png/_jcr_content/renditions/original</v>
+      </c>
+      <c r="B45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+      </c>
+      <c r="B46">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff</v>
+      </c>
+      <c r="B48">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff</v>
+      </c>
+      <c r="B49">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://medical.abbviepro.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B50">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://medical.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/bal/lav/everest/jcr:content</v>
+      </c>
+      <c r="B51">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=pl0dws&amp;referer=&amp;fullURL=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;category=</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.woff?q0neb3</v>
+      </c>
+      <c r="B55">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.ttf</v>
+      </c>
+      <c r="B56">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.ttf</v>
+      </c>
+      <c r="B57">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+      </c>
+      <c r="B58">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff</v>
+      </c>
+      <c r="B59">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://medical.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.ttf</v>
+      </c>
+      <c r="B60">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=pl0dws&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6931663177108984&amp;session=a01c8762-b1e7-4d17-a27e-d4f017ba5e3f&amp;userType=NEW</v>
+      </c>
+      <c r="B62">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=pl0dws&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.04122166337062194&amp;session=a01c8762-b1e7-4d17-a27e-d4f017ba5e3f&amp;userType=NEW</v>
+      </c>
+      <c r="B63">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D61_sn_4V2IG3HOGROR87E9N2LB1B2MM1UNRD7S&amp;svrid=-61&amp;flavor=cors&amp;vi=FRKRJSKTPUCSHUFBLMEMNTKAPRHLMFTV-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3204811280&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_4V2IG3HOGROR87E9N2LB1B2MM1UNRD7S_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=FRKRJSKTPUCSHUFBLMEMNTKAPRHLMFTV-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fmedical.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=424470864&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B65"/>
   </ignoredErrors>
 </worksheet>
 </file>